--- a/3 sınfı yazulum proje.xlsx
+++ b/3 sınfı yazulum proje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darwinevolves\Documents\GitHub\yazilim_muhendisligi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC7A4B-1981-4F74-AC0F-8D8EA727A62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEF0A8C-4982-4B5A-A38A-3E104CBAE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -176,6 +176,126 @@
   </si>
   <si>
     <t>SoftwareEng Topics</t>
+  </si>
+  <si>
+    <t>1. Bulut Uygulamaları için Ölçeklenebilir Mikroservis Mimarisi Tasarlama</t>
+  </si>
+  <si>
+    <t>2. Gerçek Zamanlı Veri İşleme için Olay Odaklı Mimarinin Uygulanması</t>
+  </si>
+  <si>
+    <t>3. Kubernetes ve Docker ile Dayanıklı Dağıtılmış Sistem Oluşturma</t>
+  </si>
+  <si>
+    <t>4. Bankacılık Uygulamaları için Güvenli Yazılım Tasarımı İncelemesi</t>
+  </si>
+  <si>
+    <t>5. Eski Sistemler için Hizmet Odaklı Mimaraya (SOA) Geçiş</t>
+  </si>
+  <si>
+    <t>6. GitLab CI/CD ile Sürekli Entegrasyon ve Dağıtım Boru Hattı Kurulumu</t>
+  </si>
+  <si>
+    <t>7. Yüksek Performanslı Web Uygulamaları için Çok Katmanlı Mimarinin Tasarlanması</t>
+  </si>
+  <si>
+    <t>8. Monolitik Uygulamaların Modüler Bileşenlere Yeniden Yapılandırılması</t>
+  </si>
+  <si>
+    <t>9. Web Geliştirmede Model-Görünüm-Kontrolcü (MVC) Deseninin Uygulanması</t>
+  </si>
+  <si>
+    <t>10. E-ticaret Web Siteleri için Yüksek Kullanılabilirlik Mimarisinin Geliştirilmesi</t>
+  </si>
+  <si>
+    <t>11. API Odaklı Uygulamalar için Entegrasyon Testi Çerçevesi Geliştirme</t>
+  </si>
+  <si>
+    <t>12. Kurumsal Kaynak Planlama (ERP) Yazılımının Kullanılabilirlik Değerlendirmesi ve Yeniden Tasarımı</t>
+  </si>
+  <si>
+    <t>13. Nesne Yönelimli Yazılım Tasarımında Açık-Kapalı Prensibin Uygulanması</t>
+  </si>
+  <si>
+    <t>14. Statik Kod Analizi Araçları ile Otomatik Kod İncelemesi</t>
+  </si>
+  <si>
+    <t>15. Büyük Veri Analitiği için Veritabanı Sistemlerinin Performans Optimizasyonu</t>
+  </si>
+  <si>
+    <t>16. Yazılım Geliştirme Projelerinde SOLID Prensiplerinin Uygulanması</t>
+  </si>
+  <si>
+    <t>17. WebSockets ve Node.js ile Gerçek Zamanlı Sohbet Uygulaması Oluşturma</t>
+  </si>
+  <si>
+    <t>18. Kaos Mühendisliği Uygulamalarıyla Dayanıklı Bir Sistem Tasarlama</t>
+  </si>
+  <si>
+    <t>19. Terraform ve Ansible ile Altyapı Otomasyonu</t>
+  </si>
+  <si>
+    <t>20. Kubernetes RBAC ve Pod Güvenlik Politikaları ile Konteyner Uygulamalarının Güvenliği</t>
+  </si>
+  <si>
+    <t>21. DevSecOps Uygulamaları ile Sürekli Güvenlik İzleme Uygulama</t>
+  </si>
+  <si>
+    <t>22. Veri Ön İşleme ve Model Eğitimi için Makine Öğrenimi Boru Hattı Oluşturma</t>
+  </si>
+  <si>
+    <t>23. Mobil Uygulama Arka Ucu için RESTful API Mimarisi Tasarlama</t>
+  </si>
+  <si>
+    <t>24. Makine Öğrenimi Modelleri için Otomatik Dağıtım Boru Hattı</t>
+  </si>
+  <si>
+    <t>25. Kurumsal Uygulamalarda Alan Odaklı Tasarım (DDD) Uygulama</t>
+  </si>
+  <si>
+    <t>26. İlerici Web Uygulamaları (PWAs) ile Ön Uç Performansının Optimizasyonu</t>
+  </si>
+  <si>
+    <t>27. React Native ile Çok Platformlu Mobil Uygulama Geliştirme</t>
+  </si>
+  <si>
+    <t>28. Mikroservis Mimarisi için API Kapısı Tasarlama</t>
+  </si>
+  <si>
+    <t>29. Dayanıklı Bulut Altyapısı için Kaos Mühendisliğinin Uygulanması</t>
+  </si>
+  <si>
+    <t>30. Nesnelerin İnterneti (IoT) Cihazları için Otomatik Test Çerçevesi Geliştirme</t>
+  </si>
+  <si>
+    <t>31. Ölçeklenebilir Web Uygulamaları için Sunucusuz Mimarinin Tasarlanması</t>
+  </si>
+  <si>
+    <t>32. Prometheus ve Grafana ile Sürekli İzleme ve Alarm Kurulumu</t>
+  </si>
+  <si>
+    <t>33. Bulut Bilişim Sağlayıcılarının Performans Karşılaştırması</t>
+  </si>
+  <si>
+    <t>34. Güvenli Seçimler için Blok Zinciri Tabanlı Oy Verme Sistemi Tasarlama</t>
+  </si>
+  <si>
+    <t>35. Metin Analizi için Doğal Dil İşleme (NLP) Boru Hattı Oluşturma</t>
+  </si>
+  <si>
+    <t>36. Esnek Proje Yönetiminde Test Odaklı Geliştirme (TDD) Uygulamaları</t>
+  </si>
+  <si>
+    <t>37. Merkezi Veri Depolama ve Analizi için Veri Gölü Mimarisi Oluşturma</t>
+  </si>
+  <si>
+    <t>38. Kurumsal Güvenlik için Kimlik ve Erişim Yönetimi (IAM) Çözümlerinin Entegrasyonu</t>
+  </si>
+  <si>
+    <t>39. Web Uygulamaları için Otomatik Kullanıcı Arayüzü Test Çerçevesi Geliştirme</t>
+  </si>
+  <si>
+    <t>40. Esnek İş Yükü Yönetimi için Hibrit Bulut Stratejisi Tasarlama</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1289,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C47"/>
@@ -3109,12 +3229,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8437C8-22A7-4770-8AC9-CA21DB6368A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="88.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
